--- a/Documents/Testdata/locatiedataset.xlsx
+++ b/Documents/Testdata/locatiedataset.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Locatie: </t>
   </si>
@@ -62,9 +62,6 @@
     <t xml:space="preserve">Omschrijving: </t>
   </si>
   <si>
-    <t>Gemeentehuis - Huwelijkkamer</t>
-  </si>
-  <si>
     <t>Gemeentehuis - Raadzaal</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t xml:space="preserve">Meer in het middelpunt kunnen jullie niet staan. In onze mooie ruime romantische raadzaal staat een ronde tafel waarin jullie het ja-woord kunnen geven. Omringt met familie en vrienden.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Trouwen achter de regenboog, dat kleurt je leven vol liefde en kleur. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Letterlijk in het huwelijksbootje stappen. Geef het ja-woord met wind in de zeilen en vaar met elkaar de toekomst in. </t>
   </si>
   <si>
@@ -162,6 +156,30 @@
   </si>
   <si>
     <t>Honeymoonsweet</t>
+  </si>
+  <si>
+    <t>Het gemeentehuis dateert uit 2019 en is een prachtig voorbeeld van de echte Hollandse demonstratiestijl. De trouwzaal heeft een historische, maar tegelijkertijd moderne, ruime uitstraling door de mooie lichtinval.</t>
+  </si>
+  <si>
+    <t>Demonstratielaan</t>
+  </si>
+  <si>
+    <t>1234 AB</t>
+  </si>
+  <si>
+    <t>Demodam</t>
+  </si>
+  <si>
+    <t>info@demodam.nl</t>
+  </si>
+  <si>
+    <t>012-3456789</t>
+  </si>
+  <si>
+    <t>www.demodam.nl/Trouwen</t>
+  </si>
+  <si>
+    <t>Gemeentehuis</t>
   </si>
 </sst>
 </file>
@@ -224,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -435,61 +456,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1577160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1171440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Afbeelding 4" descr="Gerelateerde afbeelding"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1501140" y="2103120"/>
-          <a:ext cx="1440000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -509,7 +475,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -564,7 +530,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -594,6 +560,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1633920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1171440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Afbeelding 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="1920240"/>
+          <a:ext cx="1512000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -867,7 +877,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -904,19 +914,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -924,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>21</v>
@@ -944,19 +954,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -964,19 +974,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -984,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3">
         <v>200</v>
@@ -1026,20 +1036,20 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
+      <c r="B8" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1047,39 +1057,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
+      <c r="B10" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1093,19 +1103,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -1118,9 +1128,11 @@
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" display="mailto:info@trouwschip.nl"/>
     <hyperlink ref="E8" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>